--- a/assets/work_metadado_flights.xlsx
+++ b/assets/work_metadado_flights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uolinc-my.sharepoint.com/personal/idd_apereira_uolinc_com/Documents/Área de Trabalho/desenvolvimentos/db-pipeline/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="11_AD4D361C20488DEA4E38A093BC5F47C25BDEDD84" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E1C97DA-FED6-4808-A5D4-E31300F972AA}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="11_AD4D361C20488DEA4E38A093BC5F47C25BDEDD84" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9A18FF6-1542-4AC0-9EB4-AB7F9AC1ACDC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
